--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.74</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.82</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.24</v>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.25</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2649,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3034,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,17 +3046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3065,14 +3086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3081,14 +3124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3097,14 +3162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.29</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3113,14 +3200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.24</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3129,14 +3238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.25</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3145,13 +3276,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4245</t>
+          <t>0.2175</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2735</t>
+          <t>0.1052</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>95.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>513530</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>517900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>招商中证银行AH价格优选ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>96.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1036,32 +1053,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1084,26 +1101,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1112,73 +1129,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1254,22 +1233,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4336</t>
+          <t>0.4245</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1292,22 +1271,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2683</t>
+          <t>0.2735</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1320,36 +1299,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010204</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银港股通优势成长股票</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.00</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1358,36 +1337,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1406,22 +1385,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1434,36 +1413,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0487</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1472,36 +1451,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1520,26 +1499,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1548,36 +1527,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1586,36 +1565,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>85.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1624,36 +1603,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1662,36 +1641,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>37.77</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1700,36 +1679,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1738,36 +1717,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1776,6 +1755,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2495,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3045,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03328-交通银行.xlsx
+++ b/数据整理/stocks/港股/03328-交通银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1158,594 +1705,6 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4245</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2735</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>513530</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1821,22 +1780,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4336</t>
+          <t>0.4245</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1859,22 +1818,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2683</t>
+          <t>0.2735</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1887,36 +1846,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010204</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银港股通优势成长股票</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.00</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1925,36 +1884,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1973,22 +1932,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2001,36 +1960,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0487</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2039,36 +1998,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2087,26 +2046,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2115,36 +2074,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2153,36 +2112,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>85.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2191,36 +2150,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2229,36 +2188,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>37.77</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2267,36 +2226,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2305,36 +2264,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2343,6 +2302,594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2740,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3612,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4046,288 +4593,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2911</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>